--- a/sheets/foods-and-beverages.xlsx
+++ b/sheets/foods-and-beverages.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="168">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -88,13 +88,124 @@
     <t xml:space="preserve">https://farm2table.v-circle.com/non-halal/10015-jagermeister-700ml-selected-56-botanicals-liquor.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Johnnie Walker Double Black 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Whiskey Premium and intense Premium Scottish of Johnnie Walker offers a more smoked and robust version of the most own flavors of Johnnie Walker Black Label. Our mixers have selected Whiskies Malta Scottish aged and smoked naturally that grant a transcendent and embroilved character. By including other (Strong&gt; Specially matured Malta-Strong Malta Whiskies for mixing in ancient barrels intensely charred, such as Cardhu, have conceived a whiskey in which the characteristic flavor of Johnnie Walker. Aromas of apple, pear and orange that add freshness, with creamy vanilla and spices that bring softness and sweetness to the palate. Walker Double Black is best enjoyed with water to unleash its complex brush strokes of hot spices and smoke. An exceptional mix to share on any occasion. The insurmountable gift since 1820.
+Type: Blended
+Capacity:    1L
+Made by:    John Walker and Sons
+Made in:    Scotland
+Proof:    40% Vol.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/2050/5437/products/Johnnie-Walker-Double-Black-Label-1l_600x600.jpg?v=1588760522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vinosonline.es/9978-thickbox_default/johnnie-walker-double-black-1l.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vinosonline.es/en/whisky/4630-johnnie-walker-double-black-1l.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheridan's Coffee layered Liqueur 15,5% Vol. 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 1994 Sheridan's Liqueur has been produced by the Irish company Tomas Sheridan &amp; Sons.
+Tasting notes:
+      Sheridan's Coffee Layered Liqueur is separated into two halves of a bottle. One contains coffee-chocolate liqueur, the other vanilla-cream liqueur. When serving, the two ingredients are mixed in a ratio of 2:1 (coffee:vanilla) through a special spout.
+    Enjoy Sheridan's Coffee Layered Liqueur on ice. 
+    Alcohol: 15,50 % Vol.
+    Sale of alcoholic beverages to adults only
+    Brand: Sheridan's
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.expert24.com/imagecache/item-fullscreen/43608c1c4a79a5cc5adf489c7cb6f04ba7900453ca01e1fe1d6dd3c1ebf17264.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.expert24.com/en/18156/sheridans-coffee-layered-liqueur-155-vol-1l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverroche Gin Gift Pack 3x50ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Gin
+    This gin is distilled with endemic plants from South Africa called fynbos, picked in the hills and limestone-rich cliffs of the southern tip of the South African coast. 
+Verdant Gin
+    Infused with fynbos from the mountainous terrain around the distillery, Inverroche Verdant is floral and soft with a translucent golden-green hue derived from the main botanical used to produce it.
+Gin Amber
+    Infused with aromatic fynbos found in the coastal dunes, Inverroche Amber showcases the diversity of Cape Floral Kingdom, region where the distillery is located and where the endemic plants used to make the gins can be found. 
+Weight 	0.520 kg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://spirit-beauties.com/wp-content/uploads/2021/01/inverroche-coffret-cadeau-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://spirit-beauties.com/wp-content/uploads/2021/01/image002-650x650.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://spirit-beauties.com/en/gamme/gin-en/inverroche-en/inverroche-gin-gift-pack-3x50ml/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robertson Winery Nat.sweet Rose 750ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep coral pink colour, packed with delicious sweet berry flavours
+Nose: 	Fruity and fresh, floral flavours
+Region: 	Robertson, Western Cape
+Cultivars: 	Ruby Cabernet [ Ruby Cabernet, Chenin Blanc, Colombard ]
+Pairing: 	Pair with Mexican food, grilled chicken, hummus as well as pizza
+Alcohol :	7.5%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://barkeeper.co.za/wp-content/uploads/2020/02/Robertson-Nat.sweet-Rose-750ml.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glenfiddich 15 Years Old ABV 40% 1L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The richly layered Glenfiddich 15 Year Old single malt Scotch whisky is innovatively matured in three types of oak cask: sherry, bourbon and new oak, before being married in our unique, handcrafted Oregon pine Solera vat. Year on year, this Solera vat is never emptied but is always kept at least half full creating a deliciously harmonious and intense whisky which gets more complex and intriguing every year.
+Nose: Intriguingly complex aroma with sweet heather honey and vanilla fudge combined with rich dark fruits.
+Palate: Silky smooth, revealing layers sherry oak, marzipan, cinnamon and ginger. Full bodied and bursting with flavour.
+Finish: Satisfyingly rich with lingering sweetness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/2050/5437/products/glenfiddich15newdesign_700x700.jpg?v=1629164686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/2050/5437/products/glenfiddich-15newdesign_1000x1000.jpg?v=1629164686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theliquorshop.com.sg/products/glenfiddich-15-years-old-1l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moet and Chandon Brut Imperial Champagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Moët &amp; Chandon Brut Impérial 0.75L (12% Vol.) Champagne online for home and Office delivery.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hellouganda.com/flowers/689-large_default/moet-and-chandon-brut-imperial-champagne.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://supermarket.co.ug/3906-tm_thickbox_default/moet-and-chandon-brut-imperial-champagne.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hellouganda.com/flowers/wines-spirits/590-moet-and-chandon-brut-imperial-champagne.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lindt Excellence Mango &amp; Almond Dark Chocolate Slab 100g</t>
   </si>
   <si>
     <t xml:space="preserve">Rich and refined chocolate with a delicate texture and powerful flavour. When you peel back the wrapper, you will be drawn in by the tropical mango note and the rich, dark chocolate overtone. The roasted almonds add a delightful crunch, while the mango pieces add a gorgeous flavour and tempting texture. A fine tropical treat.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.checkers.co.za/medias/10779911EA-checkers515Wx515H.webp?context=bWFzdGVyfGltYWdlc3wxNjY0NHxpbWFnZS93ZWJwfGltYWdlcy9oNTgvaDNjLzEwMDEyNjU0NzMxMjk0LndlYnB8MmQyMGFjODY3MGY5OGMxN2E1MzQ3ZjU1ZWM0Yzk2NWU3ZGU3ZTBmZDljY2FiZWFiMjA4ZTU2NjljMWY3MzhjZA</t>
+    <t xml:space="preserve">https://lindtonlineshop.co.za/wp-content/uploads/2022/05/Mango_almond-new-pic-002-1024x1024.png</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.checkers.co.za/All-Departments/Food/Food-Cupboard/Chocolates-and-Sweets/Chocolate-Bars/Lindt-Excellence-Mango-and-Almond-Dark-Chocolate-Slab-100g/p/10779911EA</t>
@@ -133,8 +244,7 @@
     <t xml:space="preserve">https://www.chocolate.lindt.com/lindt-excellence-milk-extra-creamy-bar-100g</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Almond Touch of Honey EXCELLENCE Bar – 100g</t>
+    <t xml:space="preserve">Almond Touch of Honey EXCELLENCE Bar – 100g</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -203,8 +313,7 @@
     <t xml:space="preserve">https://www.chocolate.lindt.com/media/catalog/product/l/i/lindt_excellence_sea_salt_chocolate_bar_100g.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;canvas=:</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Galaxy Smooth Milk Bar 80 g (Pack of 3)</t>
+    <t xml:space="preserve">Galaxy Smooth Milk Bar 80 g (Pack of 3)</t>
   </si>
   <si>
     <t xml:space="preserve">Created to instantly melt in your mouth, the Galaxy Smooth Milk Chocolate is silk, smooth and deliciously creamy. Galaxy Smooth Milk Chocolate is an indulgent treat that can be enjoyed with friends and family and a great way to get your sugar fix for the day. It also is perfect partner for some ‘me-time indulgence’. Undivide your attention. Enjoy pure chocolate passion with Galaxy Smooth Milk!</t>
@@ -360,6 +469,148 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.ae/Pocari-Sweat-Liquid-Isotonic-Drink/dp/B07MVTJTZ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tripleshot Espresso No Added Sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingredients:
+3.3% fat milk (75%), Starbucks Arabica coffee (water, coffee extract)(25%), natural coffee flavouring, acidity regulator (potassium carbonate), sweetener (AcesulfameK). 
+Each chilled coffee journey begins with responsibly sourced, Fairtrade, 100% Arabica coffee. We select our beans and roast them longer and darker, true to the Starbucks philosophy - unlocking the delicious potential every sip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://starbuckschilled.com/globalassets/new-web/single-images-jpg/sbux_can_triple_shot_nas_v4_spritz_s_710px.jpg?preset=product1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://starbuckschilled.com/uk/products/starbucks-tripleshot/tripleshot-espresso-no-added-sugar/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarula Marula Fruit Cream plastic bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taste:
+    Liqueurs are flavoured alcoholic beverages that are high in sugar.
+    Cream and egg liqueurs are mild, thick emulsion liqueurs. In addition to egg yolk or cream, they usually have another dominant flavour, such as toffee, cocoa, chocolate, coffee with milk, nougat, raspberry, strawberry, pear or mango.
+Any allergens possibly contained in the beverages are mentioned on the label. The manufacturer and importer of an alcoholic beverage are responsible for the quality and composition of an alcoholic beverage delivered for consumption, as well as for ensuring that the product and its labels and other product promotion are in accordance with the relevant provisions and regulations. Please note! The product image or vintage can differ from the distributed product. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.captains.co.za/product/image/large/amaru50_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.alko.fi/images/cs_srgb,f_auto,t_medium/cdn/915804/amarula-marula-fruit-cream-plastic-bottle.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alko.fi/en/products/915804/Amarula-Marula-Fruit-Cream-plastic-bottle/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muteman Ginger Ale Premium 330ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fresh soft drink with ginger taste. It is delicious on its own or as a base for cocktails, also ideal for drinking neat with crushed ice and lime. You’ll taste plenty of real ginger, a hint of fermented flavour and a dash of citrus peel. With 10 g of sugar per 100 ml, it is perfectly balanced.
+Ingredients: Water, Sugar, Carbon Dioxide, Acidity Regulator (Tartaric Acid), Natural Flavourings, Preservative (Potassium Sorbate), Ginger Extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/1891/6405/products/muteman-ginger-ale-premium-330ml-537729_480x480.jpg?v=1672844141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starbucks Doubleshot Espresso Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While every care has been taken to ensure this information is correct, food products are constantly being reformulated and nutrition content may change. We would therefore recommend that you do not rely solely on this information and always check product labels. This does not affect your statutory rights.
+INGREDIENTS:
+    3.3% Fat Milk (75%)
+    Starbucks® Arabica Coffee (Water, Coffee Extract) (19.2%)
+    Sugar (4.7%)
+    Chicory Inulin
+    Natural Coffee Flavouring
+    Acidity Regulator (Potassium Carbonate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://produits.bienmanger.com/8393-0w0h0_Starbucks_Coffee.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://starbuckschilled.com/uk/products/starbucks-tripleshot/tripleshot-espresso/#exceptional-beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokka Carbonated Vitaene C Beverages, 240 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokka vitaene c (240 ml) is an essential nutrient, it's possible to have too much of it. Vitamin c is a water-soluble vitamin that supports normal growth and development and helps your body absorb iron. 
+INGREDIENTS:
+Carbonated Water, High Fructose Corn Syrup, Citric Acid (Acidifier), Artificial Flavour (Orange and Pineapple), Vitamin C, Niacinamide, Caffeine, Flavour Enhancer (Sodium Glutamate, Sodium Aspartate), Vitamin B6, Vitamin B2.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61m229iX3YL._AC_SL1400_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61T60iDKzoL._AC_SL1400_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Pokka-Carbonated-Vitaene-Beverages-240/dp/B07NF7RZTX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starbucks Frappuccino Coffee Drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness in a bottle, Starbucks Frappuccino® Mocha iced coffee is inspired by a true Starbucks coffeehouse original. It's a delicious blend of our signature espresso roast coffee, creamy milk with rich chocolatey flavour. An indulgent chilled coffee blend, a perfect treat which can be consumed anywhere: at home or on the go.
+To enjoy our delicious Starbucks Frappuccino® Mocha iced coffee at its best, serve it chilled or over the ice and gently shake to wake the flavours. Be sure to look out for our other indulgent Starbucks Frappuccino® chilled coffee flavours: Coffee, Caramel, Vanilla.
+INGRDIENTS:  2% Fat Milk (75%), Starbucks® Arabica Coffee (Water, Coffee Extract) (19%), Sugar (5.5%), Fat-Reduced Cocoa Powder (0.4%), Acidity Regulator (Potassium Carbonates), Natural Flavourings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://d2wwnnx8tks4e8.cloudfront.net/images/app/large/5711953149733_3.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://groceries.asda.com/product/coffee-drinks/starbucks-frappuccino-coffee-drink/1000383109894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGREDIENTS: 2% Fat Milk (75%), Starbucks® Arabica Coffee (Water, Coffee Extract) (19.3%), Sugar (5.5%), Natural Flavourings (contains Milk), Acidity Requlator (Potassium Carbonates)
+Happiness in a bottle, Starbucks Frappuccino® Caramel iced coffee is inspired by a true Starbucks coffeehouse original. It's a delicious blend of our signature espresso roast coffee, creamy milk and buttery caramel. An indulgent chilled coffee blend, a perfect treat which can be consumed anywhere: at home or on the go.
+To enjoy our delicious Starbucks Frappuccino® Caramel iced coffee at its best, serve it chilled or over the ice and gently shake to wake the flavours. Be sure to look out for our other indulgent Starbucks Frappuccino® chilled coffee flavours: Mocha, Coffee, Vanilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://groceries.morrisons.com/productImages/424/424863011_0_640x640.jpg?identifier=9d514a17b146464a4e501b0df1d71379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://groceries.asda.com/product/coffee-drinks/starbucks-frappuccino-coffee-drink/1000383109856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underberg 44% 12 x 20ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Underberg 44% 12 x 20ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://discandooo.com/media/catalog/product/cache/c561b8573ac0604add5d84d8dc1005f2/0/8/085213000_1614607984_underberg_44_12x002_liter_343f.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://discandooo.com/underberg-44-12-x-2-cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubicon Cranberry Fruit Drink No Added Sugar 1 litre (Pack of 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rubicon brings you the same great experience but now with No Sugar Added. Our 100% juice blend encompasses our signature flavours at their best with this refreshing blend that is ready to drink, enjoy and transport you to a more exotic place wherever you are! 
+Units: 	33.8 Fl Oz
+Brand: 	Rubicon
+Volume: 	1 Liters
+Package weight: 	1.1 Pounds
+About this item:
+    - manufacturer: Rubicon -2367
+    - Item Trademark: RUBICON
+    - Item Category: Juice And Juice Drink
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71rtjH1TlIL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81OO4zjd1iL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Rubicon-Cranberry-Fruit-Drink-Added/dp/B08JKMHFJC</t>
   </si>
 </sst>
 </file>
@@ -369,7 +620,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -390,6 +641,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,7 +690,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -445,6 +701,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -464,13 +724,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -496,6 +756,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3608</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,9 +778,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -536,9 +799,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3606</v>
+    <row r="4" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4519</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -546,7 +809,9 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>180000</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
@@ -555,6 +820,132 @@
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4522</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4524</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="27.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4527</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4529</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4532</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4535</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -573,15 +964,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.83"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,328 +998,416 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="0" t="n">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4537</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3649</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3651</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3653</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3656</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>40</v>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3658</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="E7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3660</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3663</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3665</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>150000</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>53</v>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3667</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3670</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3673</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>66</v>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>3675</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>70</v>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>3677</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>81</v>
+      <c r="E15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4540</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4542</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4545</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>90</v>
+      <c r="E18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4547</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4550</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>95</v>
+        <v>118</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>4552</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
+        <v>123</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -942,13 +1424,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -973,26 +1455,329 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>99</v>
+    <row r="2" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3680</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
+      <c r="E2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4556</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4559</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4561</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4565</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4568</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4570</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4572</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4574</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4577</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sheets/foods-and-beverages.xlsx
+++ b/sheets/foods-and-beverages.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wines" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="chocolates" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="beverages" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="other" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="208">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -450,6 +451,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://discandooo.com/daim-minis-bag-280-g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyers Amarula Chocolate 240g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The taste of Africa, with a luxuriously dark and decadent twist. A 20-piece Amarula collection of luxurious dark chocolates, each centred with an ivory ganache and laced with velvety Amarula Cream liqueur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.openfoodfacts.org/images/products/600/970/440/0813/front_fr.4.full.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pnp.co.za/pnpstorefront/pnp/en/All-Products/Chocolates,-Chips-&amp;-Snacks/Chocolates-&amp;-Sweets/Chocolate-Bars,-Bags-&amp;-Packs/Chocolates/Beyers-Amarula-Chocolate-110g/p/000000000000516509_EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldkenn Amarula Liquor Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquor from South Africa made from Marula fruit. Swiss milk chocolate (37% cocoa) filled with Amarula® Liquor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://products2.imgix.drizly.com/ci-goldkenn-amarula-liquor-bar-351b42fcb2ca87ab.jpeg?auto=format%2Ccompress&amp;ch=Width%2CDPR&amp;fm=jpg&amp;q=20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drizly.com/liquor/liqueur/chocolate-sweet-liqueur/goldkenn-amarula-liquor-bar/p128063</t>
   </si>
   <si>
     <t xml:space="preserve">Pocari Sweat Liquid Isotonic Drink Can, 330ml</t>
@@ -612,6 +637,142 @@
   <si>
     <t xml:space="preserve">https://www.amazon.ae/Rubicon-Cranberry-Fruit-Drink-Added/dp/B08JKMHFJC</t>
   </si>
+  <si>
+    <t xml:space="preserve">Aptamil Lactose Free (LF), Infant formula milk, Stage 1, 400g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aptamil Lactose Free (LF) is a formula for special medical purpose designed for infants that have lactose intolerance or diarrhoea. Aptamil LF is free of lactose, the type of sugar responsible for causing intolerance in some infants. Lactose intolerance usually accompanies diarrhea. If you are unable to breastfeed, consult your doctor to use Aptamil LF during that phase for the fast recovery of your infant. Aptamil Lactose Free contains all of the nutrients needed for the normal growth and development of your infant. 
+    - Aptamil Lactose Free Infant Formula milk, Size: 400g
+    - Aptamil Lactose Free Infant Formula milk is the right formula for infants that have Lactose Intolerance or diarrhoea.
+    - Suitable from birth up to 6 months
+    - Baby Food Stage: 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61H4F-i68ML._AC_SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71-xIQchIEL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Aptamil-Lactose-Infant-formula-Stage/dp/B07L5JL9MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aptamil Junior 3 Growing Up Milk 1600g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aptamil contains a blend of prebiotics, LCPs, Iron, vitamins A, C, D, and other essential nutrients your baby needs for healthy growth and development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdnprod.mafretailproxy.com/sys-master-root/h3a/h98/30702878785566/883516_main.jpg_480Wx480H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jungle Oatso Easy Strawberry &amp; Yoghurt Flavoured Instant Oats Sachets 500g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant oats are nutritionally comparable to traditional oats, which take much longer to prepare. Each sachet includes fifty grams of oats which has enough energy that will last you through the day.
+Oats have been used to energise South Africans for decades due to their high energy content and necessary vitamins and minerals. It is a wonderful super food that is a household favourite for its quick and simple preparation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shoprite.co.za/medias/10172631EA-checkers515Wx515H.webp?context=bWFzdGVyfGltYWdlc3wzNzgzMnxpbWFnZS93ZWJwfGltYWdlcy9oODcvaGY0Lzk4MzA1MTY0MjQ3MzQud2VicHw1YmY0OWM1ZTc0MThiMWZhMjM0N2ZmMWFjMWE1YjI3OTliNjJiNmI4M2ZiNDUyODE3ZDg3ZDliMzhiNTE0MTQ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shoprite.co.za/All-Departments/Food/Food-Cupboard/Breakfast-Cereals%2C-Porridge-and-Pap/Oats/Jungle-Oatso-Easy-Strawberry-and-Yoghurt-Flavoured-Instant-Oats-Sachets-500g/p/10172631EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jungle Oatso Easy Banana Flavoured Instant Oats Sachets 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oats have given crucial nutrition and energy-filled meals to South Africans for decades. These instant oats are a delicious and healthful meal that is popular all over the country.
+Start your day with nourishing oats that are rich in dietary fibre and energy. It is a tasty banana-flavoured on-the-go snack and is the ideal on-the-go meal because it comes in individual sachets and all you have to do to make a wonderful bowl of oats is add boiling water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.checkers.co.za/medias/10630372EA-checkers515Wx515H.webp?context=bWFzdGVyfGltYWdlc3wzMTgzNnxpbWFnZS93ZWJwfGltYWdlcy9oZDkvaDFlLzk5NTM5NjgzMjQ2Mzgud2VicHxlYjczOTE2MzJiNzdkNmQ1ZjFmYjhhYTM5Yzg3NWFjN2QyZjJjM2I2ZWQ1OTIwOTkwYWFlMWU5OWE3ZjVlNjE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.checkers.co.za/All-Departments/Food/Food-Cupboard/Breakfast-Cereals%2C-Porridge-and-Pap/Oats/Jungle-Oatso-Easy-Banana-Flavoured-Instant-Oats-Sachets-500g/p/10630372EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Kingdom Tea – Buchu and Green Rooibos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organically grown in the Cederberg mountains of South Africa, the BuchuLife detox teas are available in boxes of 20 bags.
+BuchuLife’s™ scientifically formulated buchu oil contains the potent bioflavonoids quercetin, rutin, hesperidin, diosmin as well as diosphenol and vitamins. Also referred to as “nature’s biological response modifiers”, bioflavonoids modify the body’s reaction to compounds such as allergens, viruses, and carcinogens. It has been found that the bioflavonoids naturally occurring in buchu have greater antioxidant effects than Vitamins C, E, Selenium and Zinc.
+Buchu is a natural diuretic helping the body flush out harmful toxins:
+Brings relief from poor digestion, constipation and bloating
+Proven natural anti-inflammatory
+Rich in a host of antioxidants and bioflavonoids
+Loaded with polyphenols which help reduce the risk of developing cancer
+Relieves insomnia and is caffeine-free
+Reduces stomach spasm and colic in infants
+Other variants in the BuchuLife tea selection include Buchu &amp; Ginger, Natural Buchu, Buchu &amp; Cinnamon, Buchu &amp; Lemongrass and Buchu &amp; Mint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theteajourney.com/wp-content/uploads/2020/09/My-Post-41.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theteajourney.com/shop/cape-kingdom-tea-buchu-green-rooibos/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Kingdom Tea – Buchu Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organically grown in the Cederberg mountains of South Africa, the BuchuLife detox teas are available in boxes of 20 bags.
+BuchuLife’s™ scientifically formulated buchu oil contains the potent bioflavonoids quercetin, rutin, hesperidin, diosmin as well as diosphenol and vitamins. Also referred to as “nature’s biological response modifiers”, bioflavonoids modify the body’s reaction to compounds such as allergens, viruses, and carcinogens. It has been found that the bioflavonoids naturally occurring in buchu have greater antioxidant effects than Vitamins C, E, Selenium and Zinc.
+Buchu is a natural diuretic helping the body flush out harmful toxins:
+Brings relief from poor digestion, constipation and bloating
+Proven natural anti-inflammatory
+Rich in a host of antioxidants and bioflavonoids
+Loaded with polyphenols which help reduce the risk of developing cancer
+Relieves insomnia and is caffeine-free
+Reduces stomach spasm and colic in infants
+Other variants in the BuchuLife tea selection include Buchu &amp; Ginger, Buchu &amp; Green Rooibos, Buchu &amp; Cinnamon, Buchu &amp; Lemongrass and Buchu &amp; Mint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theteajourney.com/wp-content/uploads/2020/09/My-Post-40.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theteajourney.com/shop/cape-kingdom-tea-buchu-natural/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tongkat Ali – 30’s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOSAGE: Adults: Take 1 (one) capsule daily with meals, or as recommended by your healthcare provider. Use continuously for 4 weeks followed by a 2 week break.
+This unregistered medicine has not been evaluated by SAHPRA for its quality, safety or intended use. Health supplements are intended only to complement health or supplement the diet.
+This product is not suitable for professional and competing athletes. Professional and competing athletes are advised to use products with Informed Sport or Informed Choice certification.
+*Do not exceed the daily recommended dosage.
+*Keep out of reach of children.
+*Store at or below 25 °C in original container (Protect from moisture).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.biogen.co.za/wp-content/uploads/6009544953715-tongkat-ali-30s.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biogen.co.za/shop/tongkat-ali-30s/#iLightbox[]/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP Vital Honey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits
+    - Get a HEALTHIER body
+    - Emotions are more stable and not easily hot-tempered.
+    - Waking up in the morning feels more refreshing.
+    - Not easily feel sleepy and tired.
+    - The mind becomes more rational because it can think calmly.
+    - Become more focus and meticulous while working
+    - Most importantly, we can reduce the risk of getting a dangerous disease.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vitalhoneymalaysia.com/wp-content/uploads/2020/05/VIP-vital-honey-vital-honey-malaysia.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vitalhoneymalaysia.com/about-us/</t>
+  </si>
 </sst>
 </file>
 
@@ -620,7 +781,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -641,11 +802,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,7 +846,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -701,10 +857,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -726,11 +878,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -966,13 +1118,13 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1253,7 +1405,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="1" t="n">
         <v>3677</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1386,8 +1538,40 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1426,11 +1610,11 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1460,22 +1644,22 @@
         <v>3680</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>20000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1483,19 +1667,19 @@
         <v>4556</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1503,22 +1687,22 @@
         <v>4559</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1526,16 +1710,16 @@
         <v>4561</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1543,19 +1727,19 @@
         <v>4565</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1563,22 +1747,22 @@
         <v>4568</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1586,19 +1770,19 @@
         <v>4570</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>25000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1606,19 +1790,19 @@
         <v>4572</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>25000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1626,19 +1810,19 @@
         <v>4574</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1646,22 +1830,22 @@
         <v>4577</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1787,4 +1971,184 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="40.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/sheets/foods-and-beverages.xlsx
+++ b/sheets/foods-and-beverages.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wines" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="210">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -664,7 +664,13 @@
     <t xml:space="preserve">Aptamil contains a blend of prebiotics, LCPs, Iron, vitamins A, C, D, and other essential nutrients your baby needs for healthy growth and development.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cdnprod.mafretailproxy.com/sys-master-root/h3a/h98/30702878785566/883516_main.jpg_480Wx480H</t>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61ETAlKS4KL._AC_SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61E-LTNjznL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.carrefouruae.com/mafuae/en/root-maf-category/food-navigation-category/baby-products/milk-food-juices/baby-toddler-formula/baby-formula-1-6-years-/aptamil-advance-junior-3-1-6-kg/p/1783647</t>
   </si>
   <si>
     <t xml:space="preserve">Jungle Oatso Easy Strawberry &amp; Yoghurt Flavoured Instant Oats Sachets 500g</t>
@@ -878,11 +884,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1118,11 +1124,11 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.84"/>
   </cols>
@@ -1539,6 +1545,9 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5211</v>
+      </c>
       <c r="B22" s="0" t="s">
         <v>126</v>
       </c>
@@ -1556,6 +1565,9 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5213</v>
+      </c>
       <c r="B23" s="0" t="s">
         <v>130</v>
       </c>
@@ -1610,11 +1622,11 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1978,13 +1990,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G626"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2009,7 +2021,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5216</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>176</v>
       </c>
@@ -2026,7 +2041,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5219</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>181</v>
       </c>
@@ -2039,109 +2057,750 @@
       <c r="E3" s="0" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5220</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5221</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="40.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5223</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5225</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5227</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5229</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sheets/foods-and-beverages.xlsx
+++ b/sheets/foods-and-beverages.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="wines" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="chocolates" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="beverages" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="other" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="candies" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="282">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -475,6 +476,277 @@
   </si>
   <si>
     <t xml:space="preserve">https://drizly.com/liquor/liqueur/chocolate-sweet-liqueur/goldkenn-amarula-liquor-bar/p128063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M&amp;M's Chocolate Bar, 2 x 180g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - Milk Chocolate with M&amp;M's minis(15%)(milk chocolate in colored sugar shell)
+    - Contains: soy, milk
+    - May contain:Peanuts, almond, hazelnut, wheat
+    - All milk ingredients are derived from cows milk
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81PA8iENafL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/616af8MpOsL._SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Ms-Milk-Chocolate-Candies-180g-Pack/dp/B072MRQL1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrys Chocolate Orange Milk Crispy Oranges 125G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Real orange oil flavoured milk chocolate (85%) with a cereal centre (15%).
+    Big pack to share
+    With a crispy cereal centre
+    Made with real orange oil and crispy centre
+    Suitable for vegetarians
+    Pack size: 125G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcontent.api.tesco.com/v2/media/ghs/af1f539e-5742-4675-829e-82a3189414fa/50e71552-e217-44c8-abc4-35235a538ac9_1585080624.jpeg?h=540&amp;w=540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tesco.com/groceries/en-GB/products/309166970?currentModal=ImageZoomModal&amp;selectedUrl=https%3A%2F%2Fdigitalcontent.api.tesco.com%2Fv2%2Fmedia%2Fghs%2Faf1f539e-5742-4675-829e-82a3189414fa%2F50e71552-e217-44c8-abc4-35235a538ac9_1585080624.jpeg%3Fh%3D540%26w%3D540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Maltesers Milk Chocolate with Honey Combed Pouch, 175 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Mars
+Form: 	Snacks
+Occasion: 	Holiday
+Chocolate Type: 	Milk
+Flavour: 	Honey, Chocolate
+Units: 	175 gram
+Diet Type 	Vegetarian
+Specialty 	Vegetarian
+Size 	175 g (Pack of 1)
+Number of Pieces: 	2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81tuwwagqOL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/91PNLx6-QeL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Maltesers-Chocolate-Honey-combed-Pouch/dp/B000SM3OGW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jomara organic date syrup 400g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A syrup known by many names - date syrup is also called date honey, date molasses, and dhibs. Used as a dip or drizzle for fried Emirati dumplings, use this uniquely sweet syrup to elevate your favourite dishes. 
+Healthier than honey and maple syrup, upgrade anything from a bowl of oatmeal to a stack of pancakes with this bold and naturally sweet date syrup.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://prod-waitrose-cdn.azureedge.net/media/cache/4e/0b/4e0bb2b48ead6695f61f526739fe19c2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.waitrose.ae/en/products/jomara-organic-date-syrup-400g_9017/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish Whiskey Chocolate Truffles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guaranteed to please the most ardent of whiskey lovers, our sublime collection of rich white chocolate truffle, delicately enhanced with Irish whiskey and captured in a glorious milk chocolate shell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img01.aws.kooomo-cloud.com/upload/butlers-chocolates/images/A7806_big.jpg?v=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img01.aws.kooomo-cloud.com/upload/butlers-chocolates/images/A7806_02_big.jpg?v=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.butlerschocolates.com/en/hamper-product/irish-whiskey-chocolate-truffles-2?cCode=IE#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindt Exotic Milk Truffles Chocolate Gift Box - 200 Grams Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Lindt
+Form: 	Rocks
+Occasion: 	all
+Chocolate Type: 	Milk
+Flavour: 	Chocolate, Milk
+Units: 	200.0 gram
+Diet Type: 	Vegetarian
+Specialty: 	Vegetarian
+Size: 	200 g (Pack of 1)
+Number of Pieces: 	1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81HvOfq48VL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/813rDGZdA9L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://p-yo-www-amazon-in-kalias.amazon.in/Lindt-Exotic-Milk-Truffles-Chocolate/dp/B0120JMATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jomara Assorted Filled Dates Pouch 180g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight: 	180 Grams
+Brand: 	Jomara
+Diet type: 	Halal
+Package weight: 	0.2 Kilograms
+Produce sold as: 	Pre-packaged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/610PL70MwYL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61drLE50-ML._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Jomara-Assorted-Filled-Dates-Pouch/dp/B0B8YWTNM5/ref=d_pd_sbs_sccl_3_4/258-1638620-6268022?pd_rd_w=2Yztv&amp;content-id=amzn1.sym.f83b386e-23fe-4054-9bbe-e481b15e5b5e&amp;pf_rd_p=f83b386e-23fe-4054-9bbe-e481b15e5b5e&amp;pf_rd_r=P0W9A98FAEM9X000Z99R&amp;pd_rd_wg=tCjs7&amp;pd_rd_r=b3f71bfd-04d1-439d-8b7e-458a29c966d0&amp;pd_rd_i=B0B8YWTNM5&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrefour Almond Dates With Dark Chocolate Coated 250g (3 Packs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Carrefour Chocodate Dark is a tasty and delicious treat that is perfect for your sweet tooth
+It has delectable almond dates filled with chocolate making it ideal for when you are in the mood for something fresh and filling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdnprod.mafretailproxy.com/sys-master-root/ha7/h0d/46981950406686/480Wx480H_1549424_main.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.carrefouruae.com/mafuae/en/filled-dates-chocodates/crf-chocodate-dark-250g/p/1549424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWIX 5X2 – Special Offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingredients (German):
+Zucker, Glukosesirup, Weizenmehl, Palmfett, Kakaobutter, Magermilchpulver, Milchzucker, Butterreimfett (aus Milch), Süssmolkenpulver (aus Milch), fettarmer Kakao, Salz, Emulgator (Sojalecithin), Backtriebmittel (E500), natürlicher Vanilleextrakt, (Kann enthalten: Haselnuss, Mandel, Gluten (Gerste, Hafer)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.foodrepo.org/en/products/1269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snickers Chocolate Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delicious treat that friends, family and party guests will love. Bring them to the office, use them in gift baskets or stock up your pantry. Packed with milk chocolate, peanuts, caramel and nougat, makes for a tasty chocolate treat. Each pack comes with two Chocolate Bars, making them the ideal way to satisfy hunger and share with a friend at the same time. Remember, you're not you when you're hungry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://globalnews.ca/wp-content/uploads/2016/04/snickers-bar.jpg?w=2048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish Cream Chocolate Truffles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The creamiest white chocolate truffles, kissed with soft Irish Cream liqueur, covered in a decadent milk chocolate shell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img01.aws.kooomo-cloud.com/upload/butlers-chocolates/images/A7804_big.jpg?v=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img01.aws.kooomo-cloud.com/upload/butlers-chocolates/images/A7804_02_big.jpg?v=16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.butlerschocolates.com/en/hamper-product/irish-cream-chocolate-truffles?cCode=IE#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M&amp;M's Crispy Pieces &amp; Milk Chocolate Bag 36g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Contains Milk
+   - May Contain Peanuts
+   - Contains Barley
+   - May Contain Almonds
+   - May Contain Hazelnuts
+   - Contains Soya
+   - Pack Type: Bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bestwaywholesale.co.uk/img/products/T3/1000/5/5000159304245.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bestwaywholesale.co.uk/img/products/T517/1000/5/5000159304245.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bbfoodservice.co.uk/product/531273-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERSHEY'S KISSES Milk Chocolate – 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERSHEY’S KISSES is made with creamy delicious milk chocolate and is delicately wrapped to make your loved ones feel special. Show you care. Say It with a Kiss!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hersheyland.in/content/dam/Hersheyland_India/en_in/products/kisses/kisses-mc-100g-FOP.png?im=Resize=(908)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hersheyland.in/products/hersheys-kisses-milk-chocolate-108-g.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milka MIX -  Hazelnut, Alpine Milk &amp; Strawberry Mix Chocolate Bar Pouch 340 gm from Cococart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individually wrapped, bite-sized pieces of tender Milka alpine milk chocolate, hazelnut and strawberry flavour naps, packed in a convenient bag. Ideal for sharing while travelling or at home. This yummy treat is completely eggless and has a shelf life of 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img.tatacliq.com/images/i7/658Wx734H/MP000000010161127_658Wx734H_202108212241301.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulker Biskrem Cookie Cocoa Cream 16 x 36g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocoa cream filled Cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luluhypermarket.com/cdn-cgi/image/f=auto/medias/1285930-01.jpg-1200Wx1200H?context=bWFzdGVyfGltYWdlc3wzMDMwMjJ8aW1hZ2UvanBlZ3xoNzkvaDhlLzk3NTA1ODEyNDgwMzAvMTI4NTkzMC0wMS5qcGdfMTIwMFd4MTIwMEh8OGU4OGJiNGIyNWY3NDAwOTU3ZGRlOTc4YTQzNDBjNmFjNDEyMTFhNjgwNjIwNGI5ODU1MzE5YTQ0NDMwZDUzNw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luluhypermarket.com/en-sa/ulker-biskrem-cookie-cocoa-cream-16-x-36g/p/1285930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadiya Luxury Chocolate Dates - 360 gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand 	Nadiya
+Flavour 	Chocolate
+Units 	360 Grams
+Weight 	360 Grams
+Package Information 	Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71X0kBPwVHL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/713um4SAVLL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Nadiya-Luxury-Chocolate-Dates-360/dp/B07NF7TWMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werther's Original Creamy Filling (150g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavour: 	Caramel
+Brand: 	Werther's Original
+Item Weight: 	125 Grams
+Allergen information: 	Milk
+Package information: 	Bag
+Specialty: 	Vegetarian
+Package weight: 	0.01 Kilograms
+Number of pieces: 	1
+Unit count: 	150 gram
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71XlcMTiJwL._AC_SL1500_.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Pocari Sweat Liquid Isotonic Drink Can, 330ml</t>
@@ -884,11 +1156,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="A1:G1 B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1124,11 +1396,11 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F39" activeCellId="1" sqref="A1:G1 F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.84"/>
   </cols>
@@ -1486,7 +1758,7 @@
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>4547</v>
+        <v>5416</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>113</v>
@@ -1503,7 +1775,7 @@
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>4550</v>
+        <v>5419</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>117</v>
@@ -1526,7 +1798,7 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>4552</v>
+        <v>5421</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>122</v>
@@ -1546,7 +1818,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>5211</v>
+        <v>5423</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>126</v>
@@ -1566,7 +1838,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>5213</v>
+        <v>5425</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>130</v>
@@ -1584,23 +1856,346 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>5428</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>230000</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5430</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>5433</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>5435</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>5438</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5441</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>5444</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5445</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5446</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>220000</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5448</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>5451</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>5454</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>5456</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>5459</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>5460</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>5463</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>5465</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1622,11 +2217,11 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1656,22 +2251,22 @@
         <v>3680</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>20000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1679,19 +2274,19 @@
         <v>4556</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1699,22 +2294,22 @@
         <v>4559</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1722,16 +2317,16 @@
         <v>4561</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1739,19 +2334,19 @@
         <v>4565</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1759,22 +2354,22 @@
         <v>4568</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1782,19 +2377,19 @@
         <v>4570</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>25000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1802,19 +2397,19 @@
         <v>4572</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>25000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1822,19 +2417,19 @@
         <v>4574</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1842,22 +2437,22 @@
         <v>4577</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1992,11 +2587,11 @@
   </sheetPr>
   <dimension ref="A1:G626"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2026,19 +2621,19 @@
         <v>5216</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2046,22 +2641,22 @@
         <v>5219</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2069,19 +2664,19 @@
         <v>5220</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2089,19 +2684,19 @@
         <v>5221</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2109,19 +2704,19 @@
         <v>5223</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2129,19 +2724,19 @@
         <v>5225</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2149,19 +2744,19 @@
         <v>5227</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2169,19 +2764,19 @@
         <v>5229</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2810,4 +3405,51 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>